--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntf5-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntf5-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Ntf5</t>
+  </si>
+  <si>
+    <t>Ntrk2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ntf5</t>
-  </si>
-  <si>
-    <t>Ntrk2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,10 +546,10 @@
         <v>1.077133</v>
       </c>
       <c r="I2">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="J2">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5901906666666666</v>
+        <v>0.293221</v>
       </c>
       <c r="N2">
-        <v>1.770572</v>
+        <v>0.879663</v>
       </c>
       <c r="O2">
-        <v>0.05042357210835777</v>
+        <v>0.02611983441994871</v>
       </c>
       <c r="P2">
-        <v>0.05042357210835777</v>
+        <v>0.02611983441994871</v>
       </c>
       <c r="Q2">
-        <v>0.2119046144528889</v>
+        <v>0.1052793384643333</v>
       </c>
       <c r="R2">
-        <v>1.907141530076</v>
+        <v>0.9475140461789999</v>
       </c>
       <c r="S2">
-        <v>0.02061644615689139</v>
+        <v>0.01255313950043731</v>
       </c>
       <c r="T2">
-        <v>0.02061644615689139</v>
+        <v>0.01255313950043731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +608,10 @@
         <v>1.077133</v>
       </c>
       <c r="I3">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="J3">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +626,10 @@
         <v>32.229328</v>
       </c>
       <c r="O3">
-        <v>0.9178490591808264</v>
+        <v>0.9569854715114954</v>
       </c>
       <c r="P3">
-        <v>0.9178490591808263</v>
+        <v>0.9569854715114955</v>
       </c>
       <c r="Q3">
         <v>3.857252528513777</v>
@@ -635,10 +638,10 @@
         <v>34.71527275662399</v>
       </c>
       <c r="S3">
-        <v>0.3752765803281606</v>
+        <v>0.4599252786457429</v>
       </c>
       <c r="T3">
-        <v>0.3752765803281605</v>
+        <v>0.459925278645743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,10 +670,10 @@
         <v>1.077133</v>
       </c>
       <c r="I4">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="J4">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,90 +682,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.371358</v>
+        <v>0.183427</v>
       </c>
       <c r="N4">
-        <v>1.114074</v>
+        <v>0.550281</v>
       </c>
       <c r="O4">
-        <v>0.03172736871081582</v>
+        <v>0.01633949433413</v>
       </c>
       <c r="P4">
-        <v>0.03172736871081581</v>
+        <v>0.01633949433413</v>
       </c>
       <c r="Q4">
-        <v>0.133333985538</v>
+        <v>0.06585842493033332</v>
       </c>
       <c r="R4">
-        <v>1.200005869842</v>
+        <v>0.5927258243729999</v>
       </c>
       <c r="S4">
-        <v>0.01297221837676899</v>
+        <v>0.007852727871287235</v>
       </c>
       <c r="T4">
-        <v>0.01297221837676898</v>
+        <v>0.007852727871287237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3590443333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.077133</v>
+      </c>
+      <c r="I5">
+        <v>0.480597973884934</v>
+      </c>
+      <c r="J5">
+        <v>0.480597973884934</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.2470073333333334</v>
-      </c>
-      <c r="H5">
-        <v>0.7410220000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.2812820157566395</v>
-      </c>
-      <c r="J5">
-        <v>0.2812820157566395</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0.5901906666666666</v>
+        <v>0.006232666666666667</v>
       </c>
       <c r="N5">
-        <v>1.770572</v>
+        <v>0.018698</v>
       </c>
       <c r="O5">
-        <v>0.05042357210835777</v>
+        <v>0.0005551997344257983</v>
       </c>
       <c r="P5">
-        <v>0.05042357210835777</v>
+        <v>0.0005551997344257983</v>
       </c>
       <c r="Q5">
-        <v>0.1457814227315556</v>
+        <v>0.002237803648222222</v>
       </c>
       <c r="R5">
-        <v>1.312032804584</v>
+        <v>0.020140232834</v>
       </c>
       <c r="S5">
-        <v>0.01418324400428914</v>
+        <v>0.0002668278674664921</v>
       </c>
       <c r="T5">
-        <v>0.01418324400428914</v>
+        <v>0.0002668278674664921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2470073333333334</v>
+        <v>0.388034</v>
       </c>
       <c r="H6">
-        <v>0.7410220000000001</v>
+        <v>1.164102</v>
       </c>
       <c r="I6">
-        <v>0.2812820157566395</v>
+        <v>0.519402026115066</v>
       </c>
       <c r="J6">
-        <v>0.2812820157566395</v>
+        <v>0.5194020261150661</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.74310933333333</v>
+        <v>0.293221</v>
       </c>
       <c r="N6">
-        <v>32.229328</v>
+        <v>0.879663</v>
       </c>
       <c r="O6">
-        <v>0.9178490591808264</v>
+        <v>0.02611983441994871</v>
       </c>
       <c r="P6">
-        <v>0.9178490591808263</v>
+        <v>0.02611983441994871</v>
       </c>
       <c r="Q6">
-        <v>2.653626788135111</v>
+        <v>0.113779717514</v>
       </c>
       <c r="R6">
-        <v>23.882641093216</v>
+        <v>1.024017457626</v>
       </c>
       <c r="S6">
-        <v>0.2581744335267179</v>
+        <v>0.0135666949195114</v>
       </c>
       <c r="T6">
-        <v>0.2581744335267179</v>
+        <v>0.01356669491951141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2470073333333334</v>
+        <v>0.388034</v>
       </c>
       <c r="H7">
-        <v>0.7410220000000001</v>
+        <v>1.164102</v>
       </c>
       <c r="I7">
-        <v>0.2812820157566395</v>
+        <v>0.519402026115066</v>
       </c>
       <c r="J7">
-        <v>0.2812820157566395</v>
+        <v>0.5194020261150661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,39 +868,39 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.371358</v>
+        <v>10.74310933333333</v>
       </c>
       <c r="N7">
-        <v>1.114074</v>
+        <v>32.229328</v>
       </c>
       <c r="O7">
-        <v>0.03172736871081582</v>
+        <v>0.9569854715114954</v>
       </c>
       <c r="P7">
-        <v>0.03172736871081581</v>
+        <v>0.9569854715114955</v>
       </c>
       <c r="Q7">
-        <v>0.09172814929200002</v>
+        <v>4.168691687050666</v>
       </c>
       <c r="R7">
-        <v>0.825553343628</v>
+        <v>37.518225183456</v>
       </c>
       <c r="S7">
-        <v>0.008924338225632406</v>
+        <v>0.4970601928657525</v>
       </c>
       <c r="T7">
-        <v>0.008924338225632404</v>
+        <v>0.4970601928657526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -909,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2720966666666667</v>
+        <v>0.388034</v>
       </c>
       <c r="H8">
-        <v>0.81629</v>
+        <v>1.164102</v>
       </c>
       <c r="I8">
-        <v>0.3098527393815396</v>
+        <v>0.519402026115066</v>
       </c>
       <c r="J8">
-        <v>0.3098527393815396</v>
+        <v>0.5194020261150661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,42 +930,42 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5901906666666666</v>
+        <v>0.183427</v>
       </c>
       <c r="N8">
-        <v>1.770572</v>
+        <v>0.550281</v>
       </c>
       <c r="O8">
-        <v>0.05042357210835777</v>
+        <v>0.01633949433413</v>
       </c>
       <c r="P8">
-        <v>0.05042357210835777</v>
+        <v>0.01633949433413</v>
       </c>
       <c r="Q8">
-        <v>0.1605889130977778</v>
+        <v>0.071175912518</v>
       </c>
       <c r="R8">
-        <v>1.44530021788</v>
+        <v>0.640583212662</v>
       </c>
       <c r="S8">
-        <v>0.01562388194717725</v>
+        <v>0.008486766462842762</v>
       </c>
       <c r="T8">
-        <v>0.01562388194717725</v>
+        <v>0.008486766462842766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,108 +974,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2720966666666667</v>
+        <v>0.388034</v>
       </c>
       <c r="H9">
-        <v>0.81629</v>
+        <v>1.164102</v>
       </c>
       <c r="I9">
-        <v>0.3098527393815396</v>
+        <v>0.519402026115066</v>
       </c>
       <c r="J9">
-        <v>0.3098527393815396</v>
+        <v>0.5194020261150661</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>10.74310933333333</v>
+        <v>0.006232666666666667</v>
       </c>
       <c r="N9">
-        <v>32.229328</v>
+        <v>0.018698</v>
       </c>
       <c r="O9">
-        <v>0.9178490591808264</v>
+        <v>0.0005551997344257983</v>
       </c>
       <c r="P9">
-        <v>0.9178490591808263</v>
+        <v>0.0005551997344257983</v>
       </c>
       <c r="Q9">
-        <v>2.923164239235555</v>
+        <v>0.002418486577333333</v>
       </c>
       <c r="R9">
-        <v>26.30847815312</v>
+        <v>0.021766379196</v>
       </c>
       <c r="S9">
-        <v>0.2843980453259479</v>
+        <v>0.0002883718669593062</v>
       </c>
       <c r="T9">
-        <v>0.2843980453259479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.2720966666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.81629</v>
-      </c>
-      <c r="I10">
-        <v>0.3098527393815396</v>
-      </c>
-      <c r="J10">
-        <v>0.3098527393815396</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.371358</v>
-      </c>
-      <c r="N10">
-        <v>1.114074</v>
-      </c>
-      <c r="O10">
-        <v>0.03172736871081582</v>
-      </c>
-      <c r="P10">
-        <v>0.03172736871081581</v>
-      </c>
-      <c r="Q10">
-        <v>0.10104527394</v>
-      </c>
-      <c r="R10">
-        <v>0.90940746546</v>
-      </c>
-      <c r="S10">
-        <v>0.009830812108414428</v>
-      </c>
-      <c r="T10">
-        <v>0.009830812108414426</v>
+        <v>0.0002883718669593063</v>
       </c>
     </row>
   </sheetData>
